--- a/biology/Botanique/Leptoderris_macrothyrsa/Leptoderris_macrothyrsa.xlsx
+++ b/biology/Botanique/Leptoderris_macrothyrsa/Leptoderris_macrothyrsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptoderris macrothyrsa est une espèce de plantes de la famille des Fabaceae, observée principalement au Cameroun, également au Gabon.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une grande liane ligneuse[3], présente en forêt tropicale, à une altitude comprise entre 550 et 1 000 m[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une grande liane ligneuse, présente en forêt tropicale, à une altitude comprise entre 550 et 1 000 m.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le spécimen-type ayant été collecté en 1895 par Georg August Zenker et Alois Staudt aux environs de Yaoundé – devenue dans l'intervalle une capitale très étendue –, il est possible que l'espèce soit aujourd'hui éteinte dans cette zone, même si F.J. Breteler l'avait à nouveau signalée au mont Fébé en 1961[5].
-Sa présence a également été constatée au nord-est du Gabon (Mékambo-Madjingo), mais les menaces éventuelles ne sont pas connues pour ce site[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen-type ayant été collecté en 1895 par Georg August Zenker et Alois Staudt aux environs de Yaoundé – devenue dans l'intervalle une capitale très étendue –, il est possible que l'espèce soit aujourd'hui éteinte dans cette zone, même si F.J. Breteler l'avait à nouveau signalée au mont Fébé en 1961.
+Sa présence a également été constatée au nord-est du Gabon (Mékambo-Madjingo), mais les menaces éventuelles ne sont pas connues pour ce site.
 </t>
         </is>
       </c>
